--- a/out/arrays/positions.xlsx
+++ b/out/arrays/positions.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
   <si>
     <t>timeArray</t>
   </si>
@@ -45,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -55,14 +55,38 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,16 +106,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>

--- a/out/arrays/positions.xlsx
+++ b/out/arrays/positions.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>timeArray</t>
   </si>
@@ -45,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -55,38 +55,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,26 +72,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.046875" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.77734375" customWidth="true"/>
-    <col min="4" max="4" width="13.64453125" customWidth="true"/>
+    <col min="3" max="3" width="13.24609375" customWidth="true"/>
+    <col min="4" max="4" width="14.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -130,7 +106,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -138,13 +114,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="B3">
-        <v>0.098244657705182592</v>
+        <v>0.095296934063643438</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.0006480209588844</v>
+        <v>0.42900430771517462</v>
       </c>
     </row>
     <row r="4">
@@ -152,13 +128,13 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B4">
-        <v>0.1930605553465877</v>
+        <v>0.1817728891594679</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.9048954166356395</v>
+        <v>0.7248504762664858</v>
       </c>
     </row>
     <row r="5">
@@ -166,13 +142,13 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="B5">
-        <v>0.28456735740114036</v>
+        <v>0.26024436238378834</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.7161065899587502</v>
+        <v>0.8998640348695286</v>
       </c>
     </row>
     <row r="6">
@@ -180,13 +156,13 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B6">
-        <v>0.37288055202932091</v>
+        <v>0.33145227333628141</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.4375285254578696</v>
+        <v>0.96522962363317344</v>
       </c>
     </row>
     <row r="7">
@@ -194,13 +170,13 @@
         <v>0.5</v>
       </c>
       <c r="B7">
-        <v>0.45811159682952429</v>
+        <v>0.39606895980683265</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.0722948871916849</v>
+        <v>0.93109659778401443</v>
       </c>
     </row>
     <row r="8">
@@ -208,13 +184,13 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="B8">
-        <v>0.54036805950555811</v>
+        <v>0.45470452591997318</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.6234299736571263</v>
+        <v>0.80667485683718887</v>
       </c>
     </row>
     <row r="9">
@@ -222,13 +198,13 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="B9">
-        <v>0.61975375362481677</v>
+        <v>0.50791260267543126</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.0938525346714485</v>
+        <v>0.6003218035227329</v>
       </c>
     </row>
     <row r="10">
@@ -236,13 +212,13 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="B10">
-        <v>0.69636886963846312</v>
+        <v>0.55619557527523467</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.4863794550442648</v>
+        <v>0.31962125352477422</v>
       </c>
     </row>
     <row r="11">
@@ -250,13 +226,13 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="B11">
-        <v>0.77031010132897804</v>
+        <v>0.60000932659324724</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.8037293096885456</v>
+        <v>-0.028544958908829798</v>
       </c>
     </row>
     <row r="12">
@@ -264,13 +240,13 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="B12">
-        <v>0.84167076784466421</v>
+        <v>0.63976754157449445</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.0485257946576425</v>
+        <v>-0.43793200339353078</v>
       </c>
     </row>
     <row r="13">
@@ -278,377 +254,335 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="B13">
-        <v>0.91054093147511739</v>
+        <v>0.67584561320597347</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.22330103843819415</v>
+        <v>-0.90287309036027352</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1.1009999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="B14">
-        <v>0.92763027685007537</v>
+        <v>0.70858418693872471</v>
       </c>
       <c r="C14">
-        <v>-2.7767158585360049e-08</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.019000927630268082</v>
+        <v>-1.4182259658097376</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1.1019999999999996</v>
+        <v>1.3</v>
       </c>
       <c r="B15">
-        <v>0.92825680065071214</v>
+        <v>1.7406098868537458</v>
       </c>
       <c r="C15">
-        <v>-5.4961301774899335e-08</v>
+        <v>-0.40304123269566056</v>
       </c>
       <c r="D15">
-        <v>0.019000928256783688</v>
+        <v>-1.0353165611574771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1.1029999999999995</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="B16">
-        <v>0.92884217016806792</v>
+        <v>2.8178728723380426</v>
       </c>
       <c r="C16">
-        <v>-8.0288094244525383e-08</v>
+        <v>-0.62138927141090905</v>
       </c>
       <c r="D16">
-        <v>0.019000928842127882</v>
+        <v>-1.0522680542235126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1.1039999999999994</v>
+        <v>1.5000000000000002</v>
       </c>
       <c r="B17">
-        <v>0.92938889149733872</v>
+        <v>3.9441770452962839</v>
       </c>
       <c r="C17">
-        <v>-1.0386238257732097e-07</v>
+        <v>-0.93312375263499336</v>
       </c>
       <c r="D17">
-        <v>0.019000929388825635</v>
+        <v>-1.0834415023459214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.1049999999999993</v>
+        <v>1.6000000000000003</v>
       </c>
       <c r="B18">
-        <v>0.92989930611657445</v>
+        <v>5.2143401289025668</v>
       </c>
       <c r="C18">
-        <v>-1.2579191545167047e-07</v>
+        <v>-1.3316989457444224</v>
       </c>
       <c r="D18">
-        <v>0.019000929899218325</v>
+        <v>-1.1232990216568643</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1.2049999999999994</v>
+        <v>1.7000000000000004</v>
       </c>
       <c r="B19">
-        <v>0.97669373048854713</v>
+        <v>6.854060825061091</v>
       </c>
       <c r="C19">
-        <v>-1.1232737374791592e-06</v>
+        <v>-1.910022609657207</v>
       </c>
       <c r="D19">
-        <v>0.83185325776852426</v>
+        <v>-1.1811313880481424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1.3049999999999995</v>
+        <v>1.8000000000000005</v>
       </c>
       <c r="B20">
-        <v>1.0218550192046805</v>
+        <v>0.095296934063643438</v>
       </c>
       <c r="C20">
-        <v>-2.0859432255273777e-06</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1.5199588522190186</v>
+        <v>0.42900430771517462</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1.4049999999999996</v>
+        <v>1.9000000000000006</v>
       </c>
       <c r="B21">
-        <v>1.0654401690569248</v>
+        <v>0.1817728891594679</v>
       </c>
       <c r="C21">
-        <v>-3.0150153376740815e-06</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>2.0876714015593061</v>
+        <v>0.7248504762664858</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1.5049999999999997</v>
+        <v>2.0000000000000004</v>
       </c>
       <c r="B22">
-        <v>1.1075041876367127</v>
+        <v>0.26024436238378834</v>
       </c>
       <c r="C22">
-        <v>-3.9116626296941012e-06</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>2.5391926494227928</v>
+        <v>0.8998640348695286</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1.6049999999999998</v>
+        <v>2.1000000000000005</v>
       </c>
       <c r="B23">
-        <v>1.1481001627584921</v>
+        <v>0.33145227333628141</v>
       </c>
       <c r="C23">
-        <v>-4.7770167349090113e-06</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>2.8785776976701718</v>
+        <v>0.96522962363317344</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1.7049999999999998</v>
+        <v>2.2000000000000006</v>
       </c>
       <c r="B24">
-        <v>1.1872793294603639</v>
+        <v>0.39606895980683265</v>
       </c>
       <c r="C24">
-        <v>-5.6121697923896935e-06</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>3.1097401242193343</v>
+        <v>0.93109659778401443</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1.8049999999999999</v>
+        <v>2.3000000000000007</v>
       </c>
       <c r="B25">
-        <v>1.2250911346663811</v>
+        <v>0.45470452591997318</v>
       </c>
       <c r="C25">
-        <v>-6.4181758253143497e-06</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>3.2364569222620188</v>
+        <v>0.80667485683718887</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1.905</v>
+        <v>2.4000000000000008</v>
       </c>
       <c r="B26">
-        <v>1.2615832995921221</v>
+        <v>0.50791260267543126</v>
       </c>
       <c r="C26">
-        <v>-7.1960520712214897e-06</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>3.2623732671006329</v>
+        <v>0.6003218035227329</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2.0049999999999999</v>
+        <v>2.5000000000000009</v>
       </c>
       <c r="B27">
-        <v>1.2968018799722925</v>
+        <v>0.55619557527523467</v>
       </c>
       <c r="C27">
-        <v>-7.9467802658368065e-06</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>3.1910071166214089</v>
+        <v>0.31962125352477422</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2.105</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="B28">
-        <v>1.330791324186374</v>
+        <v>0.60000932659324724</v>
       </c>
       <c r="C28">
-        <v>-8.6713078820942315e-06</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>3.0257536512101613</v>
+        <v>-0.028544958908829798</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2.2050000000000001</v>
+        <v>2.7000000000000011</v>
       </c>
       <c r="B29">
-        <v>1.3635945293556728</v>
+        <v>0.63976754157449445</v>
       </c>
       <c r="C29">
-        <v>-9.3705493259148646e-06</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>2.7698895587138934</v>
+        <v>-0.43793200339353078</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>2.3050000000000002</v>
+        <v>2.8000000000000012</v>
       </c>
       <c r="B30">
-        <v>1.3952528954825687</v>
+        <v>0.67584561320597347</v>
       </c>
       <c r="C30">
-        <v>-1.0045387090252943e-05</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>2.4265771698563139</v>
+        <v>-0.90287309036027352</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2.4050000000000002</v>
+        <v>2.9000000000000012</v>
       </c>
       <c r="B31">
-        <v>1.4258063777002947</v>
+        <v>0.70858418693872471</v>
       </c>
       <c r="C31">
-        <v>-1.0696672868865396e-05</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1.9988684493265207</v>
+        <v>-1.4182259658097376</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>2.5050000000000003</v>
+        <v>3.0000000000000013</v>
       </c>
       <c r="B32">
-        <v>1.4552935366991864</v>
+        <v>1.7406098868537458</v>
       </c>
       <c r="C32">
-        <v>-1.1325228631210566e-05</v>
+        <v>-0.40304123269566056</v>
       </c>
       <c r="D32">
-        <v>1.4897088475777724</v>
+        <v>-1.0353165611574771</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>2.6050000000000004</v>
+        <v>3.1000000000000014</v>
       </c>
       <c r="B33">
-        <v>1.4837515873930436</v>
+        <v>2.8178728723380426</v>
       </c>
       <c r="C33">
-        <v>-1.193184765983273e-05</v>
+        <v>-0.62138927141090905</v>
       </c>
       <c r="D33">
-        <v>0.90194101819761752</v>
+        <v>-1.0522680542235126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>2.7050000000000005</v>
+        <v>3.2000000000000015</v>
       </c>
       <c r="B34">
-        <v>1.5112164458870272</v>
+        <v>3.9441770452962839</v>
       </c>
       <c r="C34">
-        <v>-1.2517295551541693e-05</v>
+        <v>-0.93312375263499336</v>
       </c>
       <c r="D34">
-        <v>0.23830840554102214</v>
+        <v>-1.0834415023459214</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>2.7060000000000004</v>
+        <v>3.3000000000000016</v>
       </c>
       <c r="B35">
-        <v>1.5195441931120515</v>
+        <v>5.2143401289025668</v>
       </c>
       <c r="C35">
-        <v>-1.2740348651914226e-05</v>
+        <v>-1.3316989457444224</v>
       </c>
       <c r="D35">
-        <v>0.019001519531471764</v>
+        <v>-1.1232990216568643</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>2.7070000000000003</v>
+        <v>3.4000000000000017</v>
       </c>
       <c r="B36">
-        <v>1.5197862884734106</v>
+        <v>6.854060825061091</v>
       </c>
       <c r="C36">
-        <v>-1.2770950817962919e-05</v>
+        <v>-1.910022609657207</v>
       </c>
       <c r="D36">
-        <v>0.019001519773555523</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>2.7080000000000002</v>
-      </c>
-      <c r="B37">
-        <v>1.5200049577116512</v>
-      </c>
-      <c r="C37">
-        <v>-1.2797449930584222e-05</v>
-      </c>
-      <c r="D37">
-        <v>0.019001519992198262</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>2.7090000000000001</v>
-      </c>
-      <c r="B38">
-        <v>1.5202011691996591</v>
-      </c>
-      <c r="C38">
-        <v>-1.2820157690683678e-05</v>
-      </c>
-      <c r="D38">
-        <v>0.019001520188387043</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>2.71</v>
-      </c>
-      <c r="B39">
-        <v>1.5203757976051924</v>
-      </c>
-      <c r="C39">
-        <v>-1.2839377746896436e-05</v>
-      </c>
-      <c r="D39">
-        <v>0.019001520362996228</v>
+        <v>-1.1811313880481424</v>
       </c>
     </row>
   </sheetData>
